--- a/ssif25.xlsx
+++ b/ssif25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekt\Forskningsämneslistan\1. Revidering 2022 inkl förstudie 2021\Reviderad standard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xgrkri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD0E9C7A-7F1D-4D01-9E7D-E4FED615A70E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02400B8D-9E09-4195-98C7-946F6F43D8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{64127156-51B7-4795-B7A2-C2FB6367D6A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{64127156-51B7-4795-B7A2-C2FB6367D6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="890">
   <si>
     <t>Forsknings-
 ämnesområde</t>
@@ -85,12 +85,6 @@
     <t>Computational Mathematics</t>
   </si>
   <si>
-    <t>Sannolikhetsteori och statistik (Statistik med medicinska aspekter under 30118 och samhällsvetenskapliga aspekter under 50907)</t>
-  </si>
-  <si>
-    <t>Probability Theory and Statistics (Statistics with medical aspects at 30118 and with social aspects at 50907)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Annan matematik </t>
   </si>
   <si>
@@ -109,18 +103,6 @@
     <t>Computer Sciences</t>
   </si>
   <si>
-    <t>Information Systems (Social aspects at 50804)</t>
-  </si>
-  <si>
-    <t>Bioinformatics (Computational Biology) (Applications at 10610)</t>
-  </si>
-  <si>
-    <t>Människa-datorinteraktion (interaktionsdesign) (Samhällsvetenskapliga aspekter under 50804)</t>
-  </si>
-  <si>
-    <t>Human Computer Interaction (Social aspects at 50804)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Programvaruteknik </t>
   </si>
   <si>
@@ -133,9 +115,6 @@
     <t>Computer Engineering</t>
   </si>
   <si>
-    <t>Computer graphics and computer vision (System engineering aspects at 20208)</t>
-  </si>
-  <si>
     <t>Språkbehandling och datorlingvistik</t>
   </si>
   <si>
@@ -373,54 +352,12 @@
     <t>Climate Science</t>
   </si>
   <si>
-    <t>Miljövetenskap (Samhällsvetenskapliga aspekter under 50909 och lantbruksvetenskapliga under 40504)</t>
-  </si>
-  <si>
-    <t>Environmental Sciences (Social aspects at 50909 and agricultural at 40504)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Multidisciplinär geovetenskap </t>
   </si>
   <si>
     <t>Multidisciplinary Geosciences</t>
   </si>
   <si>
-    <r>
-      <t>Geologi (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Geoteknik och teknisk geologi under 20106)</t>
-    </r>
-  </si>
-  <si>
-    <t>Geology (Geotechnical Engineering and Engineering Geology at 20106)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Geofysik (Tillämningar med </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>jordobservationsteknik under 20703)</t>
-    </r>
-  </si>
-  <si>
-    <t>Geophysics (Applications with Earth Observation at 20703)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Geokemi </t>
   </si>
   <si>
@@ -463,12 +400,6 @@
     <t>Geographical Information Science</t>
   </si>
   <si>
-    <t>Biologi (Medicinska tillämpningar under 3 och lantbruksvetenskapliga under 4)</t>
-  </si>
-  <si>
-    <t>Biological Sciences (Medical aspects at 3 and agricultural at 4)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Strukturbiologi </t>
   </si>
   <si>
@@ -481,9 +412,6 @@
     <t>Cell Biology</t>
   </si>
   <si>
-    <t>Immunology (Medical aspects at 30110 and agricultural at 40302)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Botanik </t>
   </si>
   <si>
@@ -496,12 +424,6 @@
     <t xml:space="preserve">Zoology </t>
   </si>
   <si>
-    <t>Genetics and Genomics (Medical aspects at 30107 and agricultural at 40402)</t>
-  </si>
-  <si>
-    <t>Bioinformatics and Computational Biology (Methods development to be 10203)</t>
-  </si>
-  <si>
     <t>modellering</t>
   </si>
   <si>
@@ -520,9 +442,6 @@
     <t>Ecology</t>
   </si>
   <si>
-    <t>Biodiversity Conservation (Biodiversity within agricultural sciences at 40504)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Biologisk systematik </t>
   </si>
   <si>
@@ -688,9 +607,6 @@
     <t>Embedded Systems</t>
   </si>
   <si>
-    <t>Computer Vision and learning System (Computer Sciences aspects in 10207)</t>
-  </si>
-  <si>
     <t>Elkraftsystem och -komponenter</t>
   </si>
   <si>
@@ -940,9 +856,6 @@
     <t>Medical Modelling and Simulation</t>
   </si>
   <si>
-    <t>Medical Informatics Engineering (Medical aspects at 30117)</t>
-  </si>
-  <si>
     <t>Annan medicinteknik</t>
   </si>
   <si>
@@ -1271,9 +1184,6 @@
   </si>
   <si>
     <t>Epidemiology</t>
-  </si>
-  <si>
-    <t>Medical Informatics (Technical aspects at 20606)</t>
   </si>
   <si>
     <t>Medicinsk biostatistik</t>
@@ -1639,12 +1549,6 @@
     <t>Forensic Science</t>
   </si>
   <si>
-    <t xml:space="preserve">Gerontologi, medicinsk/hälsovetenskaplig inriktning  (Samhällsvetenskaplig inriktn.under 50908) </t>
-  </si>
-  <si>
-    <t>Gerontology, specialising in Medical and Health Sciences (Specialising in Social Sciences at 50908)</t>
-  </si>
-  <si>
     <t>Övrig annan medicin och hälsovetenskap</t>
   </si>
   <si>
@@ -2723,42 +2627,6 @@
     <t>Other Humanities not elsewhere specified</t>
   </si>
   <si>
-    <t>Systemvetenskap, informationssystem och informatik (Samhällsvetenskapliga aspekter under 50804)</t>
-  </si>
-  <si>
-    <t>Bioinformatik (beräkningsbiologi) (Tillämpningar under 10610)</t>
-  </si>
-  <si>
-    <t>Datorgrafik och datorseende (Systemtekniska aspekter under 20208)</t>
-  </si>
-  <si>
-    <t>Immunologi (Medicinska aspekter under 30110 och lantbruksvetenskapliga under 40302)</t>
-  </si>
-  <si>
-    <t>Mikrobiologi (Medicinska aspekter under 30109 och lantbruksvetenskapliga under 40302)</t>
-  </si>
-  <si>
-    <t>Genetik och genomik (Medicinska aspekter under 30107 och lantbruksvetenskapliga under 40402)</t>
-  </si>
-  <si>
-    <t>Bioinformatik och beräkningsbiologi (Metodutveckling under 10203)</t>
-  </si>
-  <si>
-    <t>bevarandebiologi (Biodiversitet med lantbruksvetenskaplig inriktning under 40504)</t>
-  </si>
-  <si>
-    <t>Datorseende och lärande system (Datavetenskapliga aspekter under 10207)</t>
-  </si>
-  <si>
-    <t>Medicinteknisk informatik (Medicinska aspekter under 30117)</t>
-  </si>
-  <si>
-    <t>Läkemedelskemi (Naturvetenskaplig inriktning under 10405)</t>
-  </si>
-  <si>
-    <t>Medicinsk informatik (Tekniska aspekter under 20606)</t>
-  </si>
-  <si>
     <t>Medicinsk bioteknologi (Inriktn. mot cellbiologi (inkl. stamcellsbiologi), molekylärbiologi, mikrobiologi, biokemi eller biofarmaci)</t>
   </si>
   <si>
@@ -2780,15 +2648,6 @@
     <t>Political Science (Excluding Peace and Conflict Studies)</t>
   </si>
   <si>
-    <t>Medicinal Chemistry (Natural Sciences at 10405)</t>
-  </si>
-  <si>
-    <t>läkemedelskemi (Medicinsk inriktning under 30103)</t>
-  </si>
-  <si>
-    <t>Medicinal Chemistry (Medical focus at 30103)</t>
-  </si>
-  <si>
     <t>Pappers-, massa- och fiberteknik</t>
   </si>
   <si>
@@ -2825,9 +2684,6 @@
     <t>Environmental Analysis and Construction Information Technology</t>
   </si>
   <si>
-    <t>Microbiology (Medical aspects at 30109 and agricultural at 40302)</t>
-  </si>
-  <si>
     <t>cell-linjer och organoider</t>
   </si>
   <si>
@@ -2838,6 +2694,117 @@
   </si>
   <si>
     <t>Autoimmunitet och inflammation</t>
+  </si>
+  <si>
+    <t>Sannolikhetsteori och statistik</t>
+  </si>
+  <si>
+    <t>Probability Theory and Statistics</t>
+  </si>
+  <si>
+    <t>Systemvetenskap, informationssystem och informatik</t>
+  </si>
+  <si>
+    <t>Information Systems</t>
+  </si>
+  <si>
+    <t>Bioinformatik (beräkningsbiologi)</t>
+  </si>
+  <si>
+    <t>Bioinformatics (Computational Biology)</t>
+  </si>
+  <si>
+    <t>Människa-datorinteraktion (interaktionsdesign)</t>
+  </si>
+  <si>
+    <t>Human Computer Interaction</t>
+  </si>
+  <si>
+    <t>Datorgrafik och datorseende</t>
+  </si>
+  <si>
+    <t>Computer graphics and computer vision</t>
+  </si>
+  <si>
+    <t>Miljövetenskap</t>
+  </si>
+  <si>
+    <t>Environmental Sciences</t>
+  </si>
+  <si>
+    <t>Geologi</t>
+  </si>
+  <si>
+    <t>Geology</t>
+  </si>
+  <si>
+    <t>Geofysik</t>
+  </si>
+  <si>
+    <t>Geophysics</t>
+  </si>
+  <si>
+    <t>Biologi</t>
+  </si>
+  <si>
+    <t>Biological Sciences</t>
+  </si>
+  <si>
+    <t>Immunologi</t>
+  </si>
+  <si>
+    <t>Mikrobiologi</t>
+  </si>
+  <si>
+    <t>Genetik och genomik</t>
+  </si>
+  <si>
+    <t>Genetics and Genomics</t>
+  </si>
+  <si>
+    <t>Bioinformatik och beräkningsbiologi</t>
+  </si>
+  <si>
+    <t>Bioinformatics and Computational Biology</t>
+  </si>
+  <si>
+    <t>Datorseende och lärande system</t>
+  </si>
+  <si>
+    <t>Computer Vision and learning System</t>
+  </si>
+  <si>
+    <t>Medicinteknisk informatik</t>
+  </si>
+  <si>
+    <t>Medical Informatics Engineering</t>
+  </si>
+  <si>
+    <t>Läkemedelskemi</t>
+  </si>
+  <si>
+    <t>Medicinal Chemistry</t>
+  </si>
+  <si>
+    <t>Medicinsk informatik</t>
+  </si>
+  <si>
+    <t>Medical Informatics</t>
+  </si>
+  <si>
+    <t>Gerontologi, medicinsk/hälsovetenskaplig inriktning</t>
+  </si>
+  <si>
+    <t>Gerontology, specialising in Medical and Health Sciences</t>
+  </si>
+  <si>
+    <t>läkemedelskemi</t>
+  </si>
+  <si>
+    <t>bevarandebiologi</t>
+  </si>
+  <si>
+    <t>Biodiversity Conservation</t>
   </si>
 </sst>
 </file>
@@ -2931,7 +2898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2942,51 +2909,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3012,9 +2948,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3052,7 +2988,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3158,7 +3094,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3300,7 +3236,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3310,13 +3246,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C56A6BA-DE49-461C-8B31-4F010F692626}">
   <dimension ref="A1:E507"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="17.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="81.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="81.7109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="81.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -3337,15 +3274,15 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3369,7 +3306,7 @@
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3380,7 +3317,7 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3391,7 +3328,7 @@
       <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3402,7 +3339,7 @@
       <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3413,7 +3350,7 @@
       <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3422,22 +3359,21 @@
         <v>10106</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <v>10199</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4">
-        <v>10199</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3447,10 +3383,10 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3458,10 +3394,10 @@
         <v>10201</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3469,10 +3405,10 @@
         <v>10202</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>27</v>
+        <v>855</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3480,10 +3416,10 @@
         <v>10203</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>28</v>
+        <v>857</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3491,10 +3427,10 @@
         <v>10204</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>30</v>
+        <v>859</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3502,10 +3438,10 @@
         <v>10205</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3513,10 +3449,10 @@
         <v>10206</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3524,10 +3460,10 @@
         <v>10207</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>35</v>
+        <v>861</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3535,10 +3471,10 @@
         <v>10208</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3546,10 +3482,10 @@
         <v>10210</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3557,10 +3493,10 @@
         <v>10211</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3568,10 +3504,10 @@
         <v>10212</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3579,10 +3515,10 @@
         <v>10213</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3590,10 +3526,10 @@
         <v>10214</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3601,10 +3537,10 @@
         <v>10299</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3614,10 +3550,10 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3625,65 +3561,65 @@
         <v>10301</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="4" t="s">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="7" t="s">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="8" t="s">
+      <c r="E32" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3691,43 +3627,43 @@
         <v>10302</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>55</v>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>67</v>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>69</v>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3735,10 +3671,10 @@
         <v>10303</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3746,43 +3682,43 @@
         <v>10304</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>55</v>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>75</v>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>77</v>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3790,10 +3726,10 @@
         <v>10305</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3801,10 +3737,10 @@
         <v>10307</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3812,24 +3748,24 @@
         <v>10308</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C45" s="3">
         <v>10399</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3839,10 +3775,10 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3850,10 +3786,10 @@
         <v>10401</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3861,26 +3797,26 @@
         <v>10402</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D49" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>55</v>
+      <c r="D49" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D50" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>94</v>
+      <c r="D50" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3888,10 +3824,10 @@
         <v>10403</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3899,10 +3835,10 @@
         <v>10404</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3910,26 +3846,26 @@
         <v>10405</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D54" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D55" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>875</v>
+        <v>887</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3937,10 +3873,10 @@
         <v>10406</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3948,26 +3884,26 @@
         <v>10407</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D58" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>55</v>
+      <c r="D58" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D59" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>106</v>
+      <c r="D59" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3975,10 +3911,10 @@
         <v>10408</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3986,10 +3922,10 @@
         <v>10499</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3999,10 +3935,10 @@
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -4010,10 +3946,10 @@
         <v>10501</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -4021,10 +3957,10 @@
         <v>10502</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>116</v>
+        <v>863</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -4032,32 +3968,32 @@
         <v>10503</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>118</v>
+        <v>108</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C66" s="3">
         <v>10504</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>120</v>
+      <c r="D66" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C67" s="3">
         <v>10505</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>122</v>
+      <c r="D67" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -4065,10 +4001,10 @@
         <v>10506</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>124</v>
+        <v>110</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -4076,10 +4012,10 @@
         <v>10507</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -4087,10 +4023,10 @@
         <v>10508</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>128</v>
+        <v>114</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -4098,10 +4034,10 @@
         <v>10509</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>130</v>
+        <v>116</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -4109,10 +4045,10 @@
         <v>10510</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>132</v>
+        <v>118</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -4120,26 +4056,26 @@
         <v>10599</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>134</v>
+        <v>120</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D74" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>55</v>
+      <c r="D74" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D75" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>136</v>
+      <c r="D75" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -4149,10 +4085,10 @@
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>137</v>
+        <v>869</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>138</v>
+        <v>870</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -4160,10 +4096,10 @@
         <v>10601</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>140</v>
+        <v>124</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -4171,10 +4107,10 @@
         <v>10604</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>142</v>
+        <v>126</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -4182,10 +4118,10 @@
         <v>10605</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>143</v>
+        <v>871</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -4193,10 +4129,10 @@
         <v>10606</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>888</v>
+        <v>872</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.25">
@@ -4204,10 +4140,10 @@
         <v>10607</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>145</v>
+        <v>128</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.25">
@@ -4215,10 +4151,10 @@
         <v>10608</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>147</v>
+        <v>130</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.25">
@@ -4226,10 +4162,10 @@
         <v>10609</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>148</v>
+        <v>873</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.25">
@@ -4237,34 +4173,34 @@
         <v>10610</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>149</v>
+        <v>875</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D85" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>55</v>
+      <c r="D85" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D86" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>151</v>
+      <c r="D86" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D87" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>153</v>
+      <c r="D87" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.25">
@@ -4272,26 +4208,26 @@
         <v>10611</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>155</v>
+        <v>136</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D89" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>55</v>
+      <c r="D89" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D90" s="8" t="s">
-        <v>861</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>156</v>
+      <c r="D90" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.25">
@@ -4299,10 +4235,10 @@
         <v>10612</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>158</v>
+        <v>138</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.25">
@@ -4310,10 +4246,10 @@
         <v>10613</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>160</v>
+        <v>140</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.25">
@@ -4321,10 +4257,10 @@
         <v>10614</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>162</v>
+        <v>142</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.25">
@@ -4332,10 +4268,10 @@
         <v>10615</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>164</v>
+        <v>144</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.25">
@@ -4343,10 +4279,10 @@
         <v>10616</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>166</v>
+        <v>146</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.25">
@@ -4354,10 +4290,10 @@
         <v>10699</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>168</v>
+        <v>148</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -4367,10 +4303,10 @@
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -4378,23 +4314,23 @@
         <v>10799</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>170</v>
+        <v>150</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="20">
+      <c r="A99" s="9">
         <v>2</v>
       </c>
-      <c r="B99" s="21"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="E99" s="21" t="s">
-        <v>172</v>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -4404,10 +4340,10 @@
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -4415,10 +4351,10 @@
         <v>20101</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>176</v>
+        <v>156</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -4426,26 +4362,26 @@
         <v>20102</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>178</v>
+        <v>158</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D103" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>55</v>
+      <c r="D103" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D104" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>887</v>
+      <c r="D104" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -4453,10 +4389,10 @@
         <v>20103</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>181</v>
+        <v>161</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -4464,10 +4400,10 @@
         <v>20104</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>183</v>
+        <v>163</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -4475,10 +4411,10 @@
         <v>20105</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>185</v>
+        <v>165</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -4486,10 +4422,10 @@
         <v>20106</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>187</v>
+        <v>167</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -4497,10 +4433,10 @@
         <v>20107</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E109" s="10" t="s">
-        <v>189</v>
+        <v>169</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -4508,10 +4444,10 @@
         <v>20109</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E110" s="11" t="s">
-        <v>191</v>
+        <v>171</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -4519,10 +4455,10 @@
         <v>20110</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E111" s="11" t="s">
-        <v>193</v>
+        <v>173</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -4530,10 +4466,10 @@
         <v>20199</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>195</v>
+        <v>175</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -4543,10 +4479,10 @@
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -4554,10 +4490,10 @@
         <v>20201</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>199</v>
+        <v>179</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -4565,10 +4501,10 @@
         <v>20202</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>201</v>
+        <v>181</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -4576,10 +4512,10 @@
         <v>20203</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>203</v>
+        <v>183</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -4587,10 +4523,10 @@
         <v>20204</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>205</v>
+        <v>185</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -4598,10 +4534,10 @@
         <v>20205</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>207</v>
+        <v>187</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -4609,10 +4545,10 @@
         <v>20206</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>209</v>
+        <v>189</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -4620,10 +4556,10 @@
         <v>20207</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>211</v>
+        <v>191</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -4631,10 +4567,10 @@
         <v>20208</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>212</v>
+        <v>877</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4642,10 +4578,10 @@
         <v>20209</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E122" s="12" t="s">
-        <v>214</v>
+        <v>193</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -4653,10 +4589,10 @@
         <v>20299</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>216</v>
+        <v>195</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -4666,10 +4602,10 @@
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -4677,10 +4613,10 @@
         <v>20301</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>220</v>
+        <v>199</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -4688,33 +4624,33 @@
         <v>20302</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>222</v>
+        <v>201</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D127" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E127" s="13"/>
+      <c r="D127" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E127" s="5"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D128" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E128" s="9"/>
+      <c r="D128" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E128" s="6"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C129" s="3">
         <v>20304</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -4722,10 +4658,10 @@
         <v>20305</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -4733,10 +4669,10 @@
         <v>20306</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -4744,94 +4680,94 @@
         <v>20307</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C133" s="4">
+      <c r="C133" s="3">
         <v>20309</v>
       </c>
-      <c r="D133" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>233</v>
+      <c r="D133" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C134" s="4">
+      <c r="C134" s="3">
         <v>20310</v>
       </c>
-      <c r="D134" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>235</v>
+      <c r="D134" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C135" s="4">
+        <v>77</v>
+      </c>
+      <c r="C135" s="3">
         <v>20399</v>
       </c>
-      <c r="D135" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>237</v>
+      <c r="D135" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D136" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E136" s="7" t="s">
-        <v>55</v>
+      <c r="D136" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D137" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>239</v>
+      <c r="D137" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D138" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>241</v>
+      <c r="D138" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D139" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>243</v>
+      <c r="D139" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D140" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>245</v>
+      <c r="D140" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D141" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>247</v>
+      <c r="D141" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -4840,10 +4776,10 @@
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -4851,26 +4787,26 @@
         <v>20402</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>251</v>
+        <v>230</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D144" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>55</v>
+      <c r="D144" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D145" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E145" s="9" t="s">
-        <v>254</v>
+      <c r="D145" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -4878,10 +4814,10 @@
         <v>20403</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E146" s="14" t="s">
-        <v>256</v>
+        <v>235</v>
+      </c>
+      <c r="E146" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4889,10 +4825,10 @@
         <v>20405</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E147" s="14" t="s">
-        <v>258</v>
+        <v>237</v>
+      </c>
+      <c r="E147" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -4900,10 +4836,10 @@
         <v>20406</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E148" s="14" t="s">
-        <v>260</v>
+        <v>239</v>
+      </c>
+      <c r="E148" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4911,10 +4847,10 @@
         <v>20407</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E149" s="14" t="s">
-        <v>262</v>
+        <v>241</v>
+      </c>
+      <c r="E149" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -4922,10 +4858,10 @@
         <v>20499</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E150" s="14" t="s">
-        <v>264</v>
+        <v>243</v>
+      </c>
+      <c r="E150" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -4935,10 +4871,10 @@
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -4946,10 +4882,10 @@
         <v>20501</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>268</v>
+        <v>247</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -4957,10 +4893,10 @@
         <v>20502</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>270</v>
+        <v>249</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4968,10 +4904,10 @@
         <v>20503</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>271</v>
+        <v>837</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -4979,10 +4915,10 @@
         <v>20504</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>273</v>
+        <v>252</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -4990,10 +4926,10 @@
         <v>20505</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>275</v>
+        <v>254</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -5001,10 +4937,10 @@
         <v>20506</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>277</v>
+        <v>256</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -5012,10 +4948,10 @@
         <v>20599</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>279</v>
+        <v>258</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -5025,10 +4961,10 @@
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -5036,10 +4972,10 @@
         <v>20601</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>283</v>
+        <v>262</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -5047,26 +4983,26 @@
         <v>20602</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>285</v>
+        <v>264</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D162" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E162" s="13" t="s">
-        <v>55</v>
+      <c r="D162" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D163" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E163" s="9" t="s">
-        <v>287</v>
+      <c r="D163" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -5074,10 +5010,10 @@
         <v>20603</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>289</v>
+        <v>268</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -5085,26 +5021,26 @@
         <v>20604</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E165" s="4" t="s">
-        <v>291</v>
+        <v>270</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D166" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E166" s="7" t="s">
-        <v>55</v>
+      <c r="D166" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D167" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E167" s="9" t="s">
-        <v>293</v>
+      <c r="D167" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -5112,10 +5048,10 @@
         <v>20605</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E168" s="10" t="s">
-        <v>295</v>
+        <v>274</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -5123,10 +5059,10 @@
         <v>20606</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="E169" s="4" t="s">
-        <v>296</v>
+        <v>879</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -5134,10 +5070,10 @@
         <v>20699</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>298</v>
+        <v>276</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -5147,10 +5083,10 @@
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -5158,61 +5094,61 @@
         <v>20702</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>302</v>
+        <v>280</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C173" s="3">
         <v>20703</v>
       </c>
-      <c r="D173" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="E173" s="14" t="s">
-        <v>304</v>
+      <c r="D173" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E173" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D174" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E174" s="7" t="s">
-        <v>55</v>
+      <c r="D174" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D175" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="E175" s="9" t="s">
-        <v>306</v>
+      <c r="D175" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D176" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="E176" s="9" t="s">
-        <v>308</v>
+      <c r="D176" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D177" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="E177" s="9" t="s">
-        <v>310</v>
+      <c r="D177" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D178" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="E178" s="9" t="s">
-        <v>312</v>
+      <c r="D178" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -5220,10 +5156,10 @@
         <v>20704</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -5231,26 +5167,26 @@
         <v>20705</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D181" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E181" s="7" t="s">
-        <v>55</v>
+      <c r="D181" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D182" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="E182" s="9" t="s">
-        <v>318</v>
+      <c r="D182" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -5258,10 +5194,10 @@
         <v>20707</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E183" s="4" t="s">
-        <v>320</v>
+        <v>298</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -5269,10 +5205,10 @@
         <v>20799</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>322</v>
+        <v>300</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -5282,10 +5218,10 @@
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="2" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -5293,10 +5229,10 @@
         <v>20801</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>326</v>
+        <v>304</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -5304,10 +5240,10 @@
         <v>20802</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E187" s="4" t="s">
-        <v>328</v>
+        <v>306</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -5315,10 +5251,10 @@
         <v>20803</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="E188" s="4" t="s">
-        <v>330</v>
+        <v>308</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -5326,10 +5262,10 @@
         <v>20899</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="E189" s="4" t="s">
-        <v>332</v>
+        <v>310</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -5339,10 +5275,10 @@
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -5350,26 +5286,26 @@
         <v>20901</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E191" s="4" t="s">
-        <v>336</v>
+        <v>314</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D192" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E192" s="7" t="s">
-        <v>55</v>
+      <c r="D192" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D193" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="E193" s="9" t="s">
-        <v>338</v>
+      <c r="D193" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -5377,10 +5313,10 @@
         <v>20902</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="E194" s="4" t="s">
-        <v>340</v>
+        <v>318</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -5388,10 +5324,10 @@
         <v>20903</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E195" s="4" t="s">
-        <v>342</v>
+        <v>320</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -5399,10 +5335,10 @@
         <v>20904</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E196" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -5410,10 +5346,10 @@
         <v>20905</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>346</v>
+        <v>324</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -5421,10 +5357,10 @@
         <v>20906</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="E198" s="4" t="s">
-        <v>348</v>
+        <v>326</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -5432,10 +5368,10 @@
         <v>20909</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E199" s="4" t="s">
-        <v>350</v>
+        <v>328</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -5443,10 +5379,10 @@
         <v>20999</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>352</v>
+        <v>330</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -5456,10 +5392,10 @@
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -5467,10 +5403,10 @@
         <v>21002</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E202" s="14" t="s">
-        <v>356</v>
+        <v>334</v>
+      </c>
+      <c r="E202" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -5478,10 +5414,10 @@
         <v>21003</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E203" s="14" t="s">
-        <v>358</v>
+        <v>336</v>
+      </c>
+      <c r="E203" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -5489,10 +5425,10 @@
         <v>21004</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E204" s="14" t="s">
-        <v>360</v>
+        <v>338</v>
+      </c>
+      <c r="E204" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -5500,10 +5436,10 @@
         <v>21005</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E205" s="14" t="s">
-        <v>362</v>
+        <v>340</v>
+      </c>
+      <c r="E205" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -5511,10 +5447,10 @@
         <v>21099</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E206" s="11" t="s">
-        <v>364</v>
+        <v>342</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -5524,10 +5460,10 @@
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="2" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -5535,23 +5471,23 @@
         <v>21199</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>366</v>
+        <v>344</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A209" s="20">
+      <c r="A209" s="9">
         <v>3</v>
       </c>
-      <c r="B209" s="21"/>
-      <c r="C209" s="21"/>
-      <c r="D209" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="E209" s="21" t="s">
-        <v>368</v>
+      <c r="B209" s="10"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="E209" s="10" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -5561,10 +5497,10 @@
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -5572,10 +5508,10 @@
         <v>30101</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E211" s="4" t="s">
-        <v>372</v>
+        <v>350</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -5583,10 +5519,10 @@
         <v>30102</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="E212" s="4" t="s">
-        <v>374</v>
+        <v>352</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -5594,10 +5530,10 @@
         <v>30103</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>873</v>
+        <v>881</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -5605,10 +5541,10 @@
         <v>30104</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="E214" s="4" t="s">
-        <v>376</v>
+        <v>354</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -5616,10 +5552,10 @@
         <v>30105</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="E215" s="4" t="s">
-        <v>378</v>
+        <v>356</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -5627,10 +5563,10 @@
         <v>30106</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="E216" s="14" t="s">
-        <v>380</v>
+        <v>358</v>
+      </c>
+      <c r="E216" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -5638,26 +5574,26 @@
         <v>30107</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>382</v>
+        <v>360</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D218" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E218" s="7" t="s">
-        <v>55</v>
+      <c r="D218" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D219" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="E219" s="9" t="s">
-        <v>384</v>
+      <c r="D219" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="E219" s="6" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -5665,10 +5601,10 @@
         <v>30108</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="E220" s="4" t="s">
-        <v>386</v>
+        <v>364</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -5676,10 +5612,10 @@
         <v>30109</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E221" s="4" t="s">
-        <v>388</v>
+        <v>366</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -5687,26 +5623,26 @@
         <v>30110</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E222" s="4" t="s">
-        <v>390</v>
+        <v>368</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D223" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E223" s="7" t="s">
-        <v>55</v>
+      <c r="D223" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D224" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="E224" s="9" t="s">
-        <v>392</v>
+      <c r="D224" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -5714,26 +5650,26 @@
         <v>30111</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E225" s="14" t="s">
-        <v>394</v>
+        <v>372</v>
+      </c>
+      <c r="E225" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D226" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E226" s="7" t="s">
-        <v>55</v>
+      <c r="D226" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D227" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="E227" s="9" t="s">
-        <v>396</v>
+      <c r="D227" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -5741,10 +5677,10 @@
         <v>30112</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E228" s="14" t="s">
-        <v>398</v>
+        <v>376</v>
+      </c>
+      <c r="E228" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -5752,10 +5688,10 @@
         <v>30113</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E229" s="14" t="s">
-        <v>400</v>
+        <v>378</v>
+      </c>
+      <c r="E229" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -5763,10 +5699,10 @@
         <v>30114</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="E230" s="14" t="s">
-        <v>402</v>
+        <v>380</v>
+      </c>
+      <c r="E230" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -5774,10 +5710,10 @@
         <v>30115</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="E231" s="14" t="s">
-        <v>404</v>
+        <v>382</v>
+      </c>
+      <c r="E231" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -5785,10 +5721,10 @@
         <v>30116</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E232" s="14" t="s">
-        <v>406</v>
+        <v>384</v>
+      </c>
+      <c r="E232" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -5796,10 +5732,10 @@
         <v>30117</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="E233" s="14" t="s">
-        <v>407</v>
+        <v>883</v>
+      </c>
+      <c r="E233" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -5807,10 +5743,10 @@
         <v>30118</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E234" s="14" t="s">
-        <v>409</v>
+        <v>386</v>
+      </c>
+      <c r="E234" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -5818,10 +5754,10 @@
         <v>30199</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="E235" s="4" t="s">
-        <v>411</v>
+        <v>388</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -5831,207 +5767,207 @@
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="2" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C237" s="3">
         <v>30201</v>
       </c>
-      <c r="D237" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E237" s="4" t="s">
-        <v>415</v>
+      <c r="D237" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C238" s="3">
         <v>30202</v>
       </c>
-      <c r="D238" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E238" s="4" t="s">
-        <v>417</v>
+      <c r="D238" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C239" s="3">
         <v>30203</v>
       </c>
-      <c r="D239" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="E239" s="4" t="s">
-        <v>419</v>
+      <c r="D239" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D240" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E240" s="7" t="s">
-        <v>55</v>
+      <c r="D240" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="241" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D241" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="E241" s="9" t="s">
-        <v>421</v>
+      <c r="D241" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="E241" s="6" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="242" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C242" s="3">
         <v>30204</v>
       </c>
-      <c r="D242" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="E242" s="4" t="s">
-        <v>423</v>
+      <c r="D242" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="243" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C243" s="3">
         <v>30205</v>
       </c>
-      <c r="D243" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E243" s="4" t="s">
-        <v>425</v>
+      <c r="D243" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="244" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C244" s="3">
         <v>30206</v>
       </c>
-      <c r="D244" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="E244" s="4" t="s">
-        <v>427</v>
+      <c r="D244" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="245" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C245" s="3">
         <v>30207</v>
       </c>
-      <c r="D245" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="E245" s="4" t="s">
-        <v>429</v>
+      <c r="D245" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="246" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C246" s="3">
         <v>30208</v>
       </c>
-      <c r="D246" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="E246" s="4" t="s">
-        <v>431</v>
+      <c r="D246" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="247" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C247" s="3">
         <v>30209</v>
       </c>
-      <c r="D247" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="E247" s="4" t="s">
-        <v>433</v>
+      <c r="D247" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="248" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C248" s="3">
         <v>30211</v>
       </c>
-      <c r="D248" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="E248" s="4" t="s">
-        <v>435</v>
+      <c r="D248" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="249" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C249" s="3">
         <v>30212</v>
       </c>
-      <c r="D249" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="E249" s="4" t="s">
-        <v>437</v>
+      <c r="D249" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="250" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D250" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E250" s="7" t="s">
-        <v>55</v>
+      <c r="D250" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="251" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D251" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="E251" s="9" t="s">
-        <v>439</v>
+      <c r="D251" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="252" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C252" s="3">
         <v>30213</v>
       </c>
-      <c r="D252" s="10" t="s">
-        <v>891</v>
-      </c>
-      <c r="E252" s="4" t="s">
-        <v>440</v>
+      <c r="D252" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="253" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C253" s="3">
         <v>30215</v>
       </c>
-      <c r="D253" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="E253" s="4" t="s">
-        <v>442</v>
+      <c r="D253" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="254" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C254" s="3">
         <v>30216</v>
       </c>
-      <c r="D254" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E254" s="4" t="s">
-        <v>444</v>
+      <c r="D254" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="255" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C255" s="3">
         <v>30217</v>
       </c>
-      <c r="D255" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="E255" s="4" t="s">
-        <v>446</v>
+      <c r="D255" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="256" spans="3:5" x14ac:dyDescent="0.25">
@@ -6039,10 +5975,10 @@
         <v>30218</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="E256" s="14" t="s">
-        <v>448</v>
+        <v>425</v>
+      </c>
+      <c r="E256" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -6050,10 +5986,10 @@
         <v>30219</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="E257" s="4" t="s">
-        <v>450</v>
+        <v>427</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -6061,10 +5997,10 @@
         <v>30220</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="E258" s="4" t="s">
-        <v>452</v>
+        <v>429</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -6072,10 +6008,10 @@
         <v>30221</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="E259" s="4" t="s">
-        <v>454</v>
+        <v>431</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -6083,10 +6019,10 @@
         <v>30222</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="E260" s="4" t="s">
-        <v>456</v>
+        <v>433</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -6094,10 +6030,10 @@
         <v>30223</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="E261" s="4" t="s">
-        <v>458</v>
+        <v>435</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -6105,10 +6041,10 @@
         <v>30224</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="E262" s="14" t="s">
-        <v>460</v>
+        <v>437</v>
+      </c>
+      <c r="E262" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -6116,21 +6052,21 @@
         <v>30225</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="E263" s="4" t="s">
-        <v>462</v>
+        <v>439</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C264" s="3">
         <v>30226</v>
       </c>
-      <c r="D264" s="18" t="s">
-        <v>892</v>
-      </c>
-      <c r="E264" s="4" t="s">
-        <v>463</v>
+      <c r="D264" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -6138,10 +6074,10 @@
         <v>30227</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="E265" s="14" t="s">
-        <v>465</v>
+        <v>442</v>
+      </c>
+      <c r="E265" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -6149,10 +6085,10 @@
         <v>30228</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="E266" s="4" t="s">
-        <v>467</v>
+        <v>444</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -6160,10 +6096,10 @@
         <v>30229</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="E267" s="4" t="s">
-        <v>469</v>
+        <v>446</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -6171,10 +6107,10 @@
         <v>30230</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="E268" s="14" t="s">
-        <v>471</v>
+        <v>448</v>
+      </c>
+      <c r="E268" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -6182,10 +6118,10 @@
         <v>30299</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="E269" s="4" t="s">
-        <v>473</v>
+        <v>450</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -6195,164 +6131,164 @@
       </c>
       <c r="C270" s="2"/>
       <c r="D270" s="2" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C271" s="3">
         <v>30301</v>
       </c>
-      <c r="D271" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="E271" s="4" t="s">
-        <v>477</v>
+      <c r="D271" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C272" s="3">
         <v>30303</v>
       </c>
-      <c r="D272" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="E272" s="4" t="s">
-        <v>479</v>
+      <c r="D272" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C273" s="3">
         <v>30304</v>
       </c>
-      <c r="D273" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="E273" s="4" t="s">
-        <v>481</v>
+      <c r="D273" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C274" s="3">
         <v>30305</v>
       </c>
-      <c r="D274" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="E274" s="4" t="s">
-        <v>483</v>
+      <c r="D274" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C275" s="3">
         <v>30306</v>
       </c>
-      <c r="D275" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="E275" s="4" t="s">
-        <v>485</v>
+      <c r="D275" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C276" s="3">
         <v>30307</v>
       </c>
-      <c r="D276" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="E276" s="4" t="s">
-        <v>487</v>
+      <c r="D276" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C277" s="3">
         <v>30308</v>
       </c>
-      <c r="D277" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="E277" s="4" t="s">
-        <v>489</v>
+      <c r="D277" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C278" s="3">
         <v>30309</v>
       </c>
-      <c r="D278" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="E278" s="14" t="s">
-        <v>491</v>
+      <c r="D278" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E278" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C279" s="3">
         <v>30310</v>
       </c>
-      <c r="D279" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="E279" s="4" t="s">
-        <v>493</v>
+      <c r="D279" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C280" s="3">
         <v>30311</v>
       </c>
-      <c r="D280" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="E280" s="4" t="s">
-        <v>495</v>
+      <c r="D280" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C281" s="3">
         <v>30312</v>
       </c>
-      <c r="D281" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="E281" s="14" t="s">
-        <v>497</v>
+      <c r="D281" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E281" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C282" s="3">
         <v>30313</v>
       </c>
-      <c r="D282" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="E282" s="14" t="s">
-        <v>499</v>
+      <c r="D282" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="E282" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C283" s="3">
         <v>30314</v>
       </c>
-      <c r="D283" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="E283" s="14" t="s">
-        <v>501</v>
+      <c r="D283" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E283" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C284" s="3">
         <v>30399</v>
       </c>
-      <c r="D284" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="E284" s="4" t="s">
-        <v>503</v>
+      <c r="D284" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -6362,54 +6298,54 @@
       </c>
       <c r="C285" s="2"/>
       <c r="D285" s="2" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C286" s="3">
         <v>30401</v>
       </c>
-      <c r="D286" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="E286" s="4" t="s">
-        <v>506</v>
+      <c r="D286" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C287" s="3">
         <v>30402</v>
       </c>
-      <c r="D287" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="E287" s="4" t="s">
-        <v>508</v>
+      <c r="D287" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C288" s="3">
         <v>30403</v>
       </c>
-      <c r="D288" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="E288" s="4" t="s">
-        <v>510</v>
+      <c r="D288" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C289" s="3">
         <v>30499</v>
       </c>
-      <c r="D289" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="E289" s="4" t="s">
-        <v>512</v>
+      <c r="D289" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -6419,56 +6355,56 @@
       </c>
       <c r="C290" s="2"/>
       <c r="D290" s="2" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C291" s="3">
         <v>30501</v>
       </c>
-      <c r="D291" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="E291" s="4" t="s">
-        <v>516</v>
+      <c r="D291" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C292" s="3">
         <v>30502</v>
       </c>
-      <c r="D292" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="E292" s="4" t="s">
-        <v>518</v>
+      <c r="D292" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C293" s="3">
         <v>30599</v>
       </c>
-      <c r="D293" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="E293" s="4" t="s">
-        <v>520</v>
+      <c r="D293" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A294" s="20">
+      <c r="A294" s="9">
         <v>4</v>
       </c>
-      <c r="B294" s="21"/>
-      <c r="C294" s="21"/>
-      <c r="D294" s="21" t="s">
-        <v>521</v>
-      </c>
-      <c r="E294" s="21" t="s">
-        <v>522</v>
+      <c r="B294" s="10"/>
+      <c r="C294" s="10"/>
+      <c r="D294" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="E294" s="10" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -6478,10 +6414,10 @@
       </c>
       <c r="C295" s="2"/>
       <c r="D295" s="2" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -6489,50 +6425,50 @@
         <v>40101</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="E296" s="4" t="s">
-        <v>526</v>
+        <v>501</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D297" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E297" s="7" t="s">
-        <v>55</v>
+      <c r="D297" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E297" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D298" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="E298" s="9" t="s">
-        <v>528</v>
+      <c r="D298" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="E298" s="6" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D299" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="E299" s="9" t="s">
-        <v>530</v>
+      <c r="D299" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="E299" s="6" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D300" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="E300" s="9" t="s">
-        <v>532</v>
+      <c r="D300" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="E300" s="6" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D301" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="E301" s="9" t="s">
-        <v>534</v>
+      <c r="D301" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="E301" s="6" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -6540,10 +6476,10 @@
         <v>40102</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="E302" s="4" t="s">
-        <v>536</v>
+        <v>511</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -6551,26 +6487,26 @@
         <v>40103</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="E303" s="4" t="s">
-        <v>538</v>
+        <v>513</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D304" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E304" s="7" t="s">
-        <v>55</v>
+      <c r="D304" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E304" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="305" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D305" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="E305" s="9" t="s">
-        <v>540</v>
+      <c r="D305" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="E305" s="6" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="306" spans="3:5" x14ac:dyDescent="0.25">
@@ -6578,82 +6514,82 @@
         <v>40104</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="E306" s="4" t="s">
-        <v>542</v>
+        <v>517</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="307" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D307" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E307" s="7" t="s">
-        <v>55</v>
+      <c r="D307" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E307" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="308" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D308" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="E308" s="9" t="s">
-        <v>544</v>
+      <c r="D308" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="E308" s="6" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="309" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D309" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="E309" s="9" t="s">
-        <v>546</v>
+      <c r="D309" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="E309" s="6" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="310" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D310" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="E310" s="9" t="s">
-        <v>548</v>
+      <c r="D310" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="E310" s="6" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="311" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D311" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="E311" s="9" t="s">
-        <v>550</v>
+      <c r="D311" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="E311" s="6" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="312" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D312" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="E312" s="9" t="s">
-        <v>552</v>
+      <c r="D312" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="E312" s="6" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="313" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D313" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="E313" s="9" t="s">
-        <v>554</v>
+      <c r="D313" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="E313" s="6" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="314" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D314" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="E314" s="9" t="s">
-        <v>556</v>
+      <c r="D314" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="E314" s="6" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="315" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D315" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="E315" s="9" t="s">
-        <v>886</v>
+      <c r="D315" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="E315" s="6" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="316" spans="3:5" x14ac:dyDescent="0.25">
@@ -6661,26 +6597,26 @@
         <v>40105</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="E316" s="4" t="s">
-        <v>559</v>
+        <v>534</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="317" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D317" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E317" s="7" t="s">
-        <v>55</v>
+      <c r="D317" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E317" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="318" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D318" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="E318" s="9" t="s">
-        <v>561</v>
+      <c r="D318" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="E318" s="6" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="319" spans="3:5" x14ac:dyDescent="0.25">
@@ -6688,50 +6624,50 @@
         <v>40106</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="E319" s="4" t="s">
-        <v>563</v>
+        <v>538</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="320" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D320" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E320" s="7" t="s">
-        <v>55</v>
+      <c r="D320" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E320" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D321" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E321" s="9" t="s">
-        <v>565</v>
+      <c r="D321" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="E321" s="6" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D322" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="E322" s="9" t="s">
-        <v>567</v>
+      <c r="D322" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="E322" s="6" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D323" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="E323" s="9" t="s">
-        <v>885</v>
+      <c r="D323" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="E323" s="6" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D324" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="E324" s="9" t="s">
-        <v>570</v>
+      <c r="D324" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="E324" s="6" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -6739,42 +6675,42 @@
         <v>40107</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="E325" s="4" t="s">
-        <v>572</v>
+        <v>547</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D326" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E326" s="7" t="s">
-        <v>55</v>
+      <c r="D326" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E326" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D327" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="E327" s="9" t="s">
-        <v>884</v>
+      <c r="D327" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="E327" s="6" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D328" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="E328" s="9" t="s">
-        <v>575</v>
+      <c r="D328" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="E328" s="6" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D329" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="E329" s="9" t="s">
-        <v>577</v>
+      <c r="D329" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="E329" s="6" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -6784,10 +6720,10 @@
       </c>
       <c r="C330" s="2"/>
       <c r="D330" s="2" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -6795,34 +6731,34 @@
         <v>40201</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="E331" s="4" t="s">
-        <v>580</v>
+        <v>555</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D332" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E332" s="7" t="s">
-        <v>55</v>
+      <c r="D332" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E332" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D333" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="E333" s="9" t="s">
-        <v>582</v>
+      <c r="D333" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="E333" s="6" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D334" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="E334" s="9" t="s">
-        <v>584</v>
+      <c r="D334" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="E334" s="6" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -6832,10 +6768,10 @@
       </c>
       <c r="C335" s="2"/>
       <c r="D335" s="2" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -6843,42 +6779,42 @@
         <v>40301</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="E336" s="4" t="s">
-        <v>588</v>
+        <v>563</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="337" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D337" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E337" s="4" t="s">
-        <v>55</v>
+      <c r="D337" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="338" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D338" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="E338" s="4" t="s">
-        <v>590</v>
+      <c r="D338" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="339" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D339" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="E339" s="4" t="s">
-        <v>592</v>
+      <c r="D339" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="340" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D340" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="E340" s="4" t="s">
-        <v>108</v>
+      <c r="D340" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="341" spans="3:5" x14ac:dyDescent="0.25">
@@ -6886,66 +6822,66 @@
         <v>40302</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="E341" s="4" t="s">
-        <v>595</v>
+        <v>570</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="342" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D342" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E342" s="7" t="s">
-        <v>55</v>
+      <c r="D342" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E342" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="343" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D343" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="E343" s="9" t="s">
-        <v>597</v>
+      <c r="D343" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="E343" s="6" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="344" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D344" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="E344" s="9" t="s">
-        <v>599</v>
+      <c r="D344" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="E344" s="6" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="345" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D345" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="E345" s="9" t="s">
-        <v>601</v>
+      <c r="D345" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="E345" s="6" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="346" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D346" s="8" t="s">
-        <v>602</v>
-      </c>
-      <c r="E346" s="9" t="s">
-        <v>603</v>
+      <c r="D346" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="E346" s="6" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="347" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D347" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="E347" s="9" t="s">
-        <v>605</v>
+      <c r="D347" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="E347" s="6" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="348" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D348" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="E348" s="9" t="s">
-        <v>607</v>
+      <c r="D348" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="E348" s="6" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="349" spans="3:5" x14ac:dyDescent="0.25">
@@ -6953,93 +6889,93 @@
         <v>40303</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="E349" s="4" t="s">
-        <v>609</v>
+        <v>584</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="350" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D350" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E350" s="7" t="s">
-        <v>55</v>
+      <c r="D350" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E350" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="351" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D351" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="E351" s="9" t="s">
-        <v>883</v>
+      <c r="D351" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="E351" s="6" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="352" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D352" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="E352" s="9" t="s">
-        <v>882</v>
+      <c r="D352" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="E352" s="6" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D353" s="8" t="s">
-        <v>612</v>
-      </c>
-      <c r="E353" s="9" t="s">
-        <v>613</v>
+      <c r="D353" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="E353" s="6" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D354" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="E354" s="9" t="s">
-        <v>615</v>
+      <c r="D354" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="E354" s="6" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D355" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="E355" s="9" t="s">
-        <v>406</v>
+      <c r="D355" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="E355" s="6" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D356" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="E356" s="9" t="s">
-        <v>437</v>
+      <c r="D356" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="E356" s="6" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D357" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="E357" s="9" t="s">
-        <v>619</v>
+      <c r="D357" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="E357" s="6" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D358" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="E358" s="9" t="s">
-        <v>621</v>
+      <c r="D358" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="E358" s="6" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C359" s="4">
+      <c r="C359" s="3">
         <v>40399</v>
       </c>
-      <c r="D359" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="E359" s="4" t="s">
-        <v>623</v>
+      <c r="D359" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -7049,10 +6985,10 @@
       </c>
       <c r="C360" s="2"/>
       <c r="D360" s="2" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>625</v>
+        <v>601</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -7060,26 +6996,26 @@
         <v>40401</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="E361" s="4" t="s">
-        <v>627</v>
+        <v>602</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D362" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E362" s="7" t="s">
-        <v>55</v>
+      <c r="D362" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E362" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D363" s="8" t="s">
-        <v>628</v>
-      </c>
-      <c r="E363" s="9" t="s">
-        <v>629</v>
+      <c r="D363" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="E363" s="6" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -7087,50 +7023,50 @@
         <v>40402</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="E364" s="4" t="s">
-        <v>631</v>
+        <v>606</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D365" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E365" s="7" t="s">
-        <v>55</v>
+      <c r="D365" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E365" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D366" s="15" t="s">
-        <v>632</v>
-      </c>
-      <c r="E366" s="16" t="s">
-        <v>633</v>
+      <c r="D366" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="E366" s="6" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D367" s="15" t="s">
-        <v>634</v>
-      </c>
-      <c r="E367" s="16" t="s">
-        <v>635</v>
+      <c r="D367" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="E367" s="6" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D368" s="15" t="s">
-        <v>636</v>
-      </c>
-      <c r="E368" s="16" t="s">
-        <v>637</v>
+      <c r="D368" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="E368" s="6" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D369" s="15" t="s">
-        <v>889</v>
-      </c>
-      <c r="E369" s="16" t="s">
-        <v>638</v>
+      <c r="D369" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="E369" s="6" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -7139,54 +7075,54 @@
         <v>405</v>
       </c>
       <c r="C370" s="2"/>
-      <c r="D370" s="17" t="s">
-        <v>639</v>
-      </c>
-      <c r="E370" s="17" t="s">
-        <v>640</v>
+      <c r="D370" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C371" s="3">
         <v>40502</v>
       </c>
-      <c r="D371" s="18" t="s">
-        <v>641</v>
-      </c>
-      <c r="E371" s="10" t="s">
-        <v>642</v>
+      <c r="D371" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E371" s="3" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D372" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E372" s="13" t="s">
-        <v>55</v>
+      <c r="D372" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E372" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D373" s="15" t="s">
-        <v>643</v>
-      </c>
-      <c r="E373" s="16" t="s">
-        <v>644</v>
+      <c r="D373" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="E373" s="6" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D374" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="E374" s="9" t="s">
-        <v>881</v>
+      <c r="D374" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="E374" s="6" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D375" s="8" t="s">
-        <v>646</v>
-      </c>
-      <c r="E375" s="9" t="s">
-        <v>880</v>
+      <c r="D375" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="E375" s="6" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -7194,26 +7130,26 @@
         <v>40504</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="E376" s="4" t="s">
-        <v>648</v>
+        <v>623</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D377" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E377" s="4" t="s">
-        <v>55</v>
+      <c r="D377" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D378" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="E378" s="4" t="s">
-        <v>650</v>
+      <c r="D378" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
@@ -7221,42 +7157,42 @@
         <v>40505</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="E379" s="4" t="s">
-        <v>652</v>
+        <v>627</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D380" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E380" s="7" t="s">
-        <v>55</v>
+      <c r="D380" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E380" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D381" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="E381" s="9" t="s">
-        <v>654</v>
+      <c r="D381" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="E381" s="6" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D382" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="E382" s="9" t="s">
-        <v>656</v>
+      <c r="D382" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="E382" s="6" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D383" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="E383" s="9" t="s">
-        <v>658</v>
+      <c r="D383" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="E383" s="6" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
@@ -7264,10 +7200,10 @@
         <v>40506</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="E384" s="4" t="s">
-        <v>660</v>
+        <v>635</v>
+      </c>
+      <c r="E384" s="3" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
@@ -7275,10 +7211,10 @@
         <v>40507</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="E385" s="4" t="s">
-        <v>662</v>
+        <v>637</v>
+      </c>
+      <c r="E385" s="3" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
@@ -7286,23 +7222,23 @@
         <v>40599</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="E386" s="4" t="s">
-        <v>664</v>
+        <v>639</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A387" s="20">
+      <c r="A387" s="9">
         <v>5</v>
       </c>
-      <c r="B387" s="21"/>
-      <c r="C387" s="21"/>
-      <c r="D387" s="21" t="s">
-        <v>665</v>
-      </c>
-      <c r="E387" s="21" t="s">
-        <v>666</v>
+      <c r="B387" s="10"/>
+      <c r="C387" s="10"/>
+      <c r="D387" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="E387" s="10" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -7312,10 +7248,10 @@
       </c>
       <c r="C388" s="2"/>
       <c r="D388" s="2" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
@@ -7323,10 +7259,10 @@
         <v>50101</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="E389" s="4" t="s">
-        <v>868</v>
+        <v>831</v>
+      </c>
+      <c r="E389" s="3" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
@@ -7334,34 +7270,34 @@
         <v>50102</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="E390" s="4" t="s">
-        <v>670</v>
+        <v>645</v>
+      </c>
+      <c r="E390" s="3" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D391" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E391" s="7" t="s">
-        <v>55</v>
+      <c r="D391" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E391" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D392" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="E392" s="9" t="s">
-        <v>672</v>
+      <c r="D392" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="E392" s="6" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D393" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="E393" s="9" t="s">
-        <v>674</v>
+      <c r="D393" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="E393" s="6" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
@@ -7371,10 +7307,10 @@
       </c>
       <c r="C394" s="2"/>
       <c r="D394" s="2" t="s">
-        <v>675</v>
+        <v>651</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>676</v>
+        <v>652</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
@@ -7382,10 +7318,10 @@
         <v>50201</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="E395" s="4" t="s">
-        <v>678</v>
+        <v>653</v>
+      </c>
+      <c r="E395" s="3" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
@@ -7393,10 +7329,10 @@
         <v>50202</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="E396" s="4" t="s">
-        <v>680</v>
+        <v>655</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
@@ -7404,10 +7340,10 @@
         <v>50203</v>
       </c>
       <c r="D397" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="E397" s="4" t="s">
-        <v>682</v>
+        <v>657</v>
+      </c>
+      <c r="E397" s="3" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
@@ -7417,10 +7353,10 @@
       </c>
       <c r="C398" s="2"/>
       <c r="D398" s="2" t="s">
-        <v>683</v>
+        <v>659</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>684</v>
+        <v>660</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
@@ -7428,26 +7364,26 @@
         <v>50301</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="E399" s="4" t="s">
-        <v>686</v>
+        <v>661</v>
+      </c>
+      <c r="E399" s="3" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D400" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E400" s="7" t="s">
-        <v>55</v>
+      <c r="D400" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E400" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D401" s="8" t="s">
-        <v>687</v>
-      </c>
-      <c r="E401" s="9" t="s">
-        <v>688</v>
+      <c r="D401" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="E401" s="6" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
@@ -7455,26 +7391,26 @@
         <v>50302</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="E402" s="4" t="s">
-        <v>690</v>
+        <v>665</v>
+      </c>
+      <c r="E402" s="3" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D403" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E403" s="7" t="s">
-        <v>55</v>
+      <c r="D403" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E403" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D404" s="8" t="s">
-        <v>691</v>
-      </c>
-      <c r="E404" s="9" t="s">
-        <v>692</v>
+      <c r="D404" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="E404" s="6" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
@@ -7482,21 +7418,21 @@
         <v>50304</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="E405" s="4" t="s">
-        <v>694</v>
+        <v>669</v>
+      </c>
+      <c r="E405" s="3" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C406" s="3">
         <v>50399</v>
       </c>
-      <c r="D406" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="E406" s="4" t="s">
-        <v>696</v>
+      <c r="D406" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="E406" s="3" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
@@ -7506,65 +7442,65 @@
       </c>
       <c r="C407" s="2"/>
       <c r="D407" s="2" t="s">
-        <v>697</v>
+        <v>673</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>698</v>
+        <v>674</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C408" s="3">
         <v>50401</v>
       </c>
-      <c r="D408" s="4" t="s">
-        <v>869</v>
-      </c>
-      <c r="E408" s="4" t="s">
-        <v>870</v>
+      <c r="D408" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="E408" s="3" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C409" s="3">
         <v>50402</v>
       </c>
-      <c r="D409" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="E409" s="4" t="s">
-        <v>700</v>
+      <c r="D409" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E409" s="3" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C410" s="3">
         <v>50404</v>
       </c>
-      <c r="D410" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="E410" s="4" t="s">
-        <v>702</v>
+      <c r="D410" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E410" s="3" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C411" s="3">
         <v>50405</v>
       </c>
-      <c r="D411" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="E411" s="4" t="s">
-        <v>704</v>
+      <c r="D411" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E411" s="3" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C412" s="3">
         <v>50406</v>
       </c>
-      <c r="D412" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="E412" s="4" t="s">
-        <v>706</v>
+      <c r="D412" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="E412" s="3" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
@@ -7574,32 +7510,32 @@
       </c>
       <c r="C413" s="2"/>
       <c r="D413" s="2" t="s">
-        <v>707</v>
+        <v>683</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>708</v>
+        <v>684</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C414" s="3">
         <v>50501</v>
       </c>
-      <c r="D414" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="E414" s="4" t="s">
-        <v>708</v>
+      <c r="D414" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="E414" s="3" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C415" s="4">
+      <c r="C415" s="3">
         <v>50503</v>
       </c>
-      <c r="D415" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="E415" s="4" t="s">
-        <v>710</v>
+      <c r="D415" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="E415" s="3" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
@@ -7609,32 +7545,32 @@
       </c>
       <c r="C416" s="2"/>
       <c r="D416" s="2" t="s">
-        <v>711</v>
+        <v>687</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>712</v>
+        <v>688</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C417" s="3">
         <v>50601</v>
       </c>
-      <c r="D417" s="4" t="s">
-        <v>871</v>
-      </c>
-      <c r="E417" s="4" t="s">
-        <v>872</v>
+      <c r="D417" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="E417" s="3" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C418" s="3">
         <v>50604</v>
       </c>
-      <c r="D418" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="E418" s="4" t="s">
-        <v>714</v>
+      <c r="D418" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="E418" s="3" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
@@ -7644,21 +7580,21 @@
       </c>
       <c r="C419" s="2"/>
       <c r="D419" s="2" t="s">
-        <v>715</v>
+        <v>691</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>716</v>
+        <v>692</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C420" s="3">
         <v>50701</v>
       </c>
-      <c r="D420" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="E420" s="4" t="s">
-        <v>718</v>
+      <c r="D420" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="E420" s="3" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
@@ -7666,37 +7602,37 @@
         <v>50702</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="E421" s="4" t="s">
-        <v>720</v>
+        <v>695</v>
+      </c>
+      <c r="E421" s="3" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C422" s="4">
+      <c r="C422" s="3">
         <v>50703</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="E422" s="4" t="s">
-        <v>722</v>
+        <v>697</v>
+      </c>
+      <c r="E422" s="3" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D423" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E423" s="7" t="s">
-        <v>55</v>
+      <c r="D423" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E423" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D424" s="8" t="s">
-        <v>723</v>
-      </c>
-      <c r="E424" s="9" t="s">
-        <v>724</v>
+      <c r="D424" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="E424" s="6" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
@@ -7706,10 +7642,10 @@
       </c>
       <c r="C425" s="2"/>
       <c r="D425" s="2" t="s">
-        <v>725</v>
+        <v>701</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>726</v>
+        <v>702</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
@@ -7717,10 +7653,10 @@
         <v>50801</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="E426" s="4" t="s">
-        <v>727</v>
+        <v>838</v>
+      </c>
+      <c r="E426" s="3" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
@@ -7728,26 +7664,26 @@
         <v>50804</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="E427" s="4" t="s">
-        <v>729</v>
+        <v>704</v>
+      </c>
+      <c r="E427" s="3" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D428" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E428" s="7" t="s">
-        <v>55</v>
+      <c r="D428" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E428" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D429" s="8" t="s">
-        <v>730</v>
-      </c>
-      <c r="E429" s="9" t="s">
-        <v>731</v>
+      <c r="D429" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="E429" s="6" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
@@ -7755,10 +7691,10 @@
         <v>50805</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="E430" s="4" t="s">
-        <v>733</v>
+        <v>708</v>
+      </c>
+      <c r="E430" s="3" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
@@ -7768,10 +7704,10 @@
       </c>
       <c r="C431" s="2"/>
       <c r="D431" s="2" t="s">
-        <v>734</v>
+        <v>710</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>735</v>
+        <v>711</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
@@ -7779,10 +7715,10 @@
         <v>50902</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="E432" s="4" t="s">
-        <v>737</v>
+        <v>712</v>
+      </c>
+      <c r="E432" s="3" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
@@ -7790,10 +7726,10 @@
         <v>50903</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="E433" s="4" t="s">
-        <v>739</v>
+        <v>714</v>
+      </c>
+      <c r="E433" s="3" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
@@ -7801,10 +7737,10 @@
         <v>50904</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="E434" s="4" t="s">
-        <v>741</v>
+        <v>716</v>
+      </c>
+      <c r="E434" s="3" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
@@ -7812,10 +7748,10 @@
         <v>50905</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="E435" s="4" t="s">
-        <v>743</v>
+        <v>718</v>
+      </c>
+      <c r="E435" s="3" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
@@ -7823,10 +7759,10 @@
         <v>50906</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="E436" s="4" t="s">
-        <v>745</v>
+        <v>720</v>
+      </c>
+      <c r="E436" s="3" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -7834,10 +7770,10 @@
         <v>50907</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="E437" s="4" t="s">
-        <v>747</v>
+        <v>722</v>
+      </c>
+      <c r="E437" s="3" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -7845,10 +7781,10 @@
         <v>50908</v>
       </c>
       <c r="D438" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="E438" s="4" t="s">
-        <v>749</v>
+        <v>724</v>
+      </c>
+      <c r="E438" s="3" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
@@ -7856,10 +7792,10 @@
         <v>50909</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="E439" s="4" t="s">
-        <v>879</v>
+        <v>726</v>
+      </c>
+      <c r="E439" s="3" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
@@ -7867,10 +7803,10 @@
         <v>50910</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="E440" s="4" t="s">
-        <v>752</v>
+        <v>727</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
@@ -7878,10 +7814,10 @@
         <v>50911</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="E441" s="4" t="s">
-        <v>878</v>
+        <v>729</v>
+      </c>
+      <c r="E441" s="3" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
@@ -7889,10 +7825,10 @@
         <v>50912</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="E442" s="4" t="s">
-        <v>755</v>
+        <v>730</v>
+      </c>
+      <c r="E442" s="3" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
@@ -7900,23 +7836,23 @@
         <v>50999</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="E443" s="4" t="s">
-        <v>757</v>
+        <v>732</v>
+      </c>
+      <c r="E443" s="3" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="444" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A444" s="20">
+      <c r="A444" s="9">
         <v>6</v>
       </c>
-      <c r="B444" s="21"/>
-      <c r="C444" s="21"/>
-      <c r="D444" s="21" t="s">
-        <v>758</v>
-      </c>
-      <c r="E444" s="21" t="s">
-        <v>759</v>
+      <c r="B444" s="10"/>
+      <c r="C444" s="10"/>
+      <c r="D444" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="E444" s="10" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
@@ -7926,10 +7862,10 @@
       </c>
       <c r="C445" s="2"/>
       <c r="D445" s="2" t="s">
-        <v>760</v>
+        <v>736</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>761</v>
+        <v>737</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
@@ -7937,10 +7873,10 @@
         <v>60101</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="E446" s="4" t="s">
-        <v>763</v>
+        <v>738</v>
+      </c>
+      <c r="E446" s="3" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
@@ -7948,10 +7884,10 @@
         <v>60102</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="E447" s="4" t="s">
-        <v>765</v>
+        <v>740</v>
+      </c>
+      <c r="E447" s="3" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
@@ -7959,10 +7895,10 @@
         <v>60103</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="E448" s="4" t="s">
-        <v>767</v>
+        <v>742</v>
+      </c>
+      <c r="E448" s="3" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -7970,10 +7906,10 @@
         <v>60104</v>
       </c>
       <c r="D449" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="E449" s="4" t="s">
-        <v>769</v>
+        <v>744</v>
+      </c>
+      <c r="E449" s="3" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
@@ -7981,10 +7917,10 @@
         <v>60105</v>
       </c>
       <c r="D450" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="E450" s="4" t="s">
-        <v>771</v>
+        <v>746</v>
+      </c>
+      <c r="E450" s="3" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
@@ -7994,10 +7930,10 @@
       </c>
       <c r="C451" s="2"/>
       <c r="D451" s="2" t="s">
-        <v>772</v>
+        <v>748</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>773</v>
+        <v>749</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
@@ -8005,10 +7941,10 @@
         <v>60201</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="E452" s="4" t="s">
-        <v>775</v>
+        <v>750</v>
+      </c>
+      <c r="E452" s="3" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
@@ -8016,10 +7952,10 @@
         <v>60202</v>
       </c>
       <c r="D453" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="E453" s="4" t="s">
-        <v>777</v>
+        <v>752</v>
+      </c>
+      <c r="E453" s="3" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
@@ -8027,26 +7963,26 @@
         <v>60203</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="E454" s="4" t="s">
-        <v>779</v>
+        <v>754</v>
+      </c>
+      <c r="E454" s="3" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D455" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E455" s="7" t="s">
-        <v>55</v>
+      <c r="D455" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E455" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D456" s="8" t="s">
-        <v>780</v>
-      </c>
-      <c r="E456" s="9" t="s">
-        <v>781</v>
+      <c r="D456" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="E456" s="6" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
@@ -8054,26 +7990,26 @@
         <v>60204</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="E457" s="4" t="s">
-        <v>783</v>
+        <v>758</v>
+      </c>
+      <c r="E457" s="3" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D458" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E458" s="7" t="s">
-        <v>55</v>
+      <c r="D458" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E458" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D459" s="8" t="s">
-        <v>784</v>
-      </c>
-      <c r="E459" s="9" t="s">
-        <v>785</v>
+      <c r="D459" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="E459" s="6" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
@@ -8081,10 +8017,10 @@
         <v>60205</v>
       </c>
       <c r="D460" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="E460" s="4" t="s">
-        <v>787</v>
+        <v>762</v>
+      </c>
+      <c r="E460" s="3" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
@@ -8092,10 +8028,10 @@
         <v>60206</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="E461" s="4" t="s">
-        <v>789</v>
+        <v>764</v>
+      </c>
+      <c r="E461" s="3" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
@@ -8103,10 +8039,10 @@
         <v>60207</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="E462" s="4" t="s">
-        <v>791</v>
+        <v>766</v>
+      </c>
+      <c r="E462" s="3" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
@@ -8116,10 +8052,10 @@
       </c>
       <c r="C463" s="2"/>
       <c r="D463" s="2" t="s">
-        <v>792</v>
+        <v>768</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>793</v>
+        <v>769</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
@@ -8127,10 +8063,10 @@
         <v>60301</v>
       </c>
       <c r="D464" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="E464" s="4" t="s">
-        <v>795</v>
+        <v>770</v>
+      </c>
+      <c r="E464" s="3" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
@@ -8138,10 +8074,10 @@
         <v>60302</v>
       </c>
       <c r="D465" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="E465" s="4" t="s">
-        <v>797</v>
+        <v>772</v>
+      </c>
+      <c r="E465" s="3" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
@@ -8149,58 +8085,58 @@
         <v>60303</v>
       </c>
       <c r="D466" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="E466" s="4" t="s">
-        <v>799</v>
+        <v>774</v>
+      </c>
+      <c r="E466" s="3" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D467" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E467" s="7" t="s">
-        <v>55</v>
+      <c r="D467" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E467" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D468" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E468" s="9" t="s">
-        <v>801</v>
+      <c r="D468" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="E468" s="6" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D469" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="E469" s="9" t="s">
-        <v>803</v>
+      <c r="D469" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="E469" s="6" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D470" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="E470" s="9" t="s">
-        <v>805</v>
+      <c r="D470" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="E470" s="6" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D471" s="8" t="s">
-        <v>806</v>
-      </c>
-      <c r="E471" s="9" t="s">
-        <v>807</v>
+      <c r="D471" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="E471" s="6" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D472" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="E472" s="9" t="s">
-        <v>809</v>
+      <c r="D472" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="E472" s="6" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
@@ -8208,10 +8144,10 @@
         <v>60304</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="E473" s="4" t="s">
-        <v>811</v>
+        <v>786</v>
+      </c>
+      <c r="E473" s="3" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
@@ -8219,10 +8155,10 @@
         <v>60306</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="E474" s="4" t="s">
-        <v>813</v>
+        <v>788</v>
+      </c>
+      <c r="E474" s="3" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
@@ -8232,18 +8168,18 @@
       </c>
       <c r="C475" s="2"/>
       <c r="D475" s="2" t="s">
-        <v>814</v>
+        <v>790</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>815</v>
+        <v>791</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D476" s="2" t="s">
-        <v>816</v>
+        <v>792</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>817</v>
+        <v>793</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
@@ -8251,26 +8187,26 @@
         <v>60407</v>
       </c>
       <c r="D477" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="E477" s="4" t="s">
-        <v>819</v>
+        <v>794</v>
+      </c>
+      <c r="E477" s="3" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D478" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E478" s="7" t="s">
-        <v>55</v>
+      <c r="D478" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E478" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D479" s="8" t="s">
-        <v>820</v>
-      </c>
-      <c r="E479" s="9" t="s">
-        <v>821</v>
+      <c r="D479" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="E479" s="6" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
@@ -8278,10 +8214,10 @@
         <v>60408</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="E480" s="4" t="s">
-        <v>823</v>
+        <v>798</v>
+      </c>
+      <c r="E480" s="3" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
@@ -8289,10 +8225,10 @@
         <v>60409</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="E481" s="4" t="s">
-        <v>825</v>
+        <v>800</v>
+      </c>
+      <c r="E481" s="3" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
@@ -8300,18 +8236,18 @@
         <v>60410</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="E482" s="4" t="s">
-        <v>827</v>
+        <v>802</v>
+      </c>
+      <c r="E482" s="3" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D483" s="2" t="s">
-        <v>828</v>
+        <v>804</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>829</v>
+        <v>805</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
@@ -8319,10 +8255,10 @@
         <v>60411</v>
       </c>
       <c r="D484" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="E484" s="4" t="s">
-        <v>831</v>
+        <v>806</v>
+      </c>
+      <c r="E484" s="3" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
@@ -8330,10 +8266,10 @@
         <v>60412</v>
       </c>
       <c r="D485" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="E485" s="4" t="s">
-        <v>833</v>
+        <v>808</v>
+      </c>
+      <c r="E485" s="3" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
@@ -8341,10 +8277,10 @@
         <v>60413</v>
       </c>
       <c r="D486" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="E486" s="4" t="s">
-        <v>835</v>
+        <v>810</v>
+      </c>
+      <c r="E486" s="3" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
@@ -8352,10 +8288,10 @@
         <v>60414</v>
       </c>
       <c r="D487" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="E487" s="4" t="s">
-        <v>837</v>
+        <v>812</v>
+      </c>
+      <c r="E487" s="3" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
@@ -8363,10 +8299,10 @@
         <v>60415</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="E488" s="4" t="s">
-        <v>839</v>
+        <v>814</v>
+      </c>
+      <c r="E488" s="3" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
@@ -8374,10 +8310,10 @@
         <v>60416</v>
       </c>
       <c r="D489" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="E489" s="4" t="s">
-        <v>656</v>
+        <v>632</v>
+      </c>
+      <c r="E489" s="3" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
@@ -8385,10 +8321,10 @@
         <v>60417</v>
       </c>
       <c r="D490" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="E490" s="4" t="s">
-        <v>840</v>
+        <v>816</v>
+      </c>
+      <c r="E490" s="3" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
@@ -8396,10 +8332,10 @@
         <v>60418</v>
       </c>
       <c r="D491" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="E491" s="4" t="s">
-        <v>842</v>
+        <v>817</v>
+      </c>
+      <c r="E491" s="3" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
@@ -8407,10 +8343,10 @@
         <v>60419</v>
       </c>
       <c r="D492" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="E492" s="4" t="s">
-        <v>844</v>
+        <v>819</v>
+      </c>
+      <c r="E492" s="3" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
@@ -8420,10 +8356,10 @@
       </c>
       <c r="C493" s="2"/>
       <c r="D493" s="2" t="s">
-        <v>845</v>
+        <v>821</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>846</v>
+        <v>822</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
@@ -8431,10 +8367,10 @@
         <v>60502</v>
       </c>
       <c r="D494" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="E494" s="4" t="s">
-        <v>848</v>
+        <v>823</v>
+      </c>
+      <c r="E494" s="3" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
@@ -8442,10 +8378,10 @@
         <v>60503</v>
       </c>
       <c r="D495" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="E495" s="4" t="s">
-        <v>850</v>
+        <v>825</v>
+      </c>
+      <c r="E495" s="3" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
@@ -8453,10 +8389,10 @@
         <v>60504</v>
       </c>
       <c r="D496" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="E496" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
+      </c>
+      <c r="E496" s="3" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="497" spans="3:5" x14ac:dyDescent="0.25">
@@ -8464,31 +8400,31 @@
         <v>60599</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="E497" s="4" t="s">
-        <v>853</v>
+        <v>828</v>
+      </c>
+      <c r="E497" s="3" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="502" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D502" s="6"/>
+      <c r="D502" s="5"/>
     </row>
     <row r="503" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C503" s="6"/>
-      <c r="D503" s="8"/>
+      <c r="C503" s="5"/>
+      <c r="D503" s="6"/>
     </row>
     <row r="504" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C504" s="8"/>
-      <c r="D504" s="8"/>
+      <c r="C504" s="6"/>
+      <c r="D504" s="6"/>
     </row>
     <row r="505" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D505" s="8"/>
+      <c r="D505" s="6"/>
     </row>
     <row r="506" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D506" s="8"/>
+      <c r="D506" s="6"/>
     </row>
     <row r="507" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D507" s="8"/>
+      <c r="D507" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
